--- a/Задание 2.xlsx
+++ b/Задание 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>какой тип данных лучше всего подходит для записи ID объектов в c++</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>map Mapname</t>
+  </si>
+  <si>
+    <t>Всего баллов:</t>
+  </si>
+  <si>
+    <t>Оценка:</t>
   </si>
 </sst>
 </file>
@@ -354,13 +360,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,34 +659,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD39"/>
+  <dimension ref="B1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="15" max="15" width="43.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="24.5703125" customWidth="1"/>
-    <col min="19" max="19" width="36.42578125" customWidth="1"/>
-    <col min="20" max="20" width="55" customWidth="1"/>
-    <col min="21" max="21" width="29.5703125" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" customWidth="1"/>
-    <col min="25" max="25" width="61.140625" customWidth="1"/>
-    <col min="26" max="26" width="28" customWidth="1"/>
-    <col min="27" max="27" width="36.85546875" customWidth="1"/>
-    <col min="29" max="29" width="39.140625" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="36.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="55" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="29.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="107" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="28" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="36.85546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="39.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="23.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
@@ -733,7 +755,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
       <c r="K2" t="s">
         <v>21</v>
       </c>
@@ -796,7 +819,7 @@
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
@@ -838,7 +861,9 @@
       <c r="X3" t="s">
         <v>74</v>
       </c>
-      <c r="Y3" s="2"/>
+      <c r="Y3" t="s">
+        <v>79</v>
+      </c>
       <c r="Z3" t="s">
         <v>82</v>
       </c>
@@ -856,6 +881,7 @@
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
       <c r="K4" t="s">
         <v>23</v>
       </c>
@@ -892,9 +918,6 @@
       <c r="V4" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" t="s">
-        <v>79</v>
-      </c>
       <c r="Z4" t="s">
         <v>81</v>
       </c>
@@ -912,7 +935,7 @@
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K5" t="s">
@@ -941,100 +964,312 @@
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
       <c r="N6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="1"/>
     </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" t="str">
+        <f>IF(B2="","",IF(B2=K4,1,0))</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(B4="","",IF(B4=L3,1,0))</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>IF(B6="","",IF(B6=M2,1,0))</f>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f>IF(B8="","",IF(B8=N6,1,0))</f>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(B10="","",IF(B10=O1,1,0))</f>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f>IF(B12="","",IF(B12=P4,1,0))</f>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(B14="","",IF(B14=Q2,1,0))</f>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(B16="","",IF(B16=R5,1,0))</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>IF(B18="","",IF(B18=S4,1,0))</f>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f>IF(B20="","",IF(B20=T3,1,0))</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>IF(B22="","",IF(B22=U4,1,0))</f>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f>IF(B24="","",IF(B24=V4,1,0))</f>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f>IF(B26="","",IF(B26=W2,1,0))</f>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f>IF(B28="","",IF(B28=X3,1,0))</f>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f>IF(B30="","",IF(B30=Y2,1,0))</f>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f>IF(B32="","",IF(B32=Z4,1,0))</f>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f>IF(B34="","",IF(B34=AA2,1,0))</f>
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <f>IF(B36="","",IF(B36=AB3,1,0))</f>
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <f>IF(B38="","",IF(B38=AC2,1,0))</f>
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <f>IF(B40="","",IF(B40=AD2,1,0))</f>
+        <v/>
+      </c>
+    </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+    </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+    </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+    </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+    </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+    </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+    </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+    </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <f>SUM(K8:AD8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="5">
+        <f>C41/4</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Y2:Y3"/>
-  </mergeCells>
+  <dataValidations count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B2">
+      <formula1>$K$1:$K$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B4">
+      <formula1>$L$1:$L$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B6">
+      <formula1>$M$1:$M$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B10">
+      <formula1>$O$1:$O$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B8">
+      <formula1>$N$1:$N$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B12">
+      <formula1>$P$1:$P$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B14">
+      <formula1>$Q$1:$Q$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B16">
+      <formula1>$R$1:$R$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B18">
+      <formula1>$S$1:$S$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B20">
+      <formula1>$T$1:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B22">
+      <formula1>$U$1:$U$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B24">
+      <formula1>$V$1:$V$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B26">
+      <formula1>$W$1:$W$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B28">
+      <formula1>$X$1:$X$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B32">
+      <formula1>$Z$1:$Z$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B34">
+      <formula1>$AA$1:$AA$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B36">
+      <formula1>$AB$1:$AB$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B38">
+      <formula1>$AC$1:$AC$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B40">
+      <formula1>$AD$1:$AD$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Выберите ответ!" sqref="B30">
+      <formula1>$Y$1:$Y$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>